--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Cd274-Pdcd1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Cd274-Pdcd1.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>15.438552</v>
+        <v>10.43877666666667</v>
       </c>
       <c r="H2">
-        <v>46.315656</v>
+        <v>31.31633</v>
       </c>
       <c r="I2">
-        <v>0.4516083650784051</v>
+        <v>0.478485024444405</v>
       </c>
       <c r="J2">
-        <v>0.4516083650784052</v>
+        <v>0.4784850244444049</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -555,10 +555,10 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.1152523333333333</v>
+        <v>0.1457796666666667</v>
       </c>
       <c r="N2">
-        <v>0.345757</v>
+        <v>0.437339</v>
       </c>
       <c r="O2">
         <v>1</v>
@@ -567,16 +567,16 @@
         <v>1</v>
       </c>
       <c r="Q2">
-        <v>1.779329141288</v>
+        <v>1.521761382874445</v>
       </c>
       <c r="R2">
-        <v>16.013962271592</v>
+        <v>13.69585244587</v>
       </c>
       <c r="S2">
-        <v>0.4516083650784051</v>
+        <v>0.478485024444405</v>
       </c>
       <c r="T2">
-        <v>0.4516083650784052</v>
+        <v>0.4784850244444049</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,10 +605,10 @@
         <v>4.897315</v>
       </c>
       <c r="I3">
-        <v>0.04775206941738987</v>
+        <v>0.07482651662844755</v>
       </c>
       <c r="J3">
-        <v>0.04775206941738987</v>
+        <v>0.07482651662844754</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -617,10 +617,10 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>0.1152523333333333</v>
+        <v>0.1457796666666667</v>
       </c>
       <c r="N3">
-        <v>0.345757</v>
+        <v>0.437339</v>
       </c>
       <c r="O3">
         <v>1</v>
@@ -629,16 +629,16 @@
         <v>1</v>
       </c>
       <c r="Q3">
-        <v>0.1881423269394444</v>
+        <v>0.2379763160872222</v>
       </c>
       <c r="R3">
-        <v>1.693280942455</v>
+        <v>2.141786844785</v>
       </c>
       <c r="S3">
-        <v>0.04775206941738987</v>
+        <v>0.07482651662844755</v>
       </c>
       <c r="T3">
-        <v>0.04775206941738987</v>
+        <v>0.07482651662844754</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.3869703333333334</v>
+        <v>0.4778236666666666</v>
       </c>
       <c r="H4">
-        <v>1.160911</v>
+        <v>1.433471</v>
       </c>
       <c r="I4">
-        <v>0.01131965222972414</v>
+        <v>0.02190213241702797</v>
       </c>
       <c r="J4">
-        <v>0.01131965222972415</v>
+        <v>0.02190213241702797</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -679,10 +679,10 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.1152523333333333</v>
+        <v>0.1457796666666667</v>
       </c>
       <c r="N4">
-        <v>0.345757</v>
+        <v>0.437339</v>
       </c>
       <c r="O4">
         <v>1</v>
@@ -691,16 +691,16 @@
         <v>1</v>
       </c>
       <c r="Q4">
-        <v>0.04459923384744445</v>
+        <v>0.06965697485211111</v>
       </c>
       <c r="R4">
-        <v>0.4013931046270001</v>
+        <v>0.6269127736689999</v>
       </c>
       <c r="S4">
-        <v>0.01131965222972414</v>
+        <v>0.02190213241702797</v>
       </c>
       <c r="T4">
-        <v>0.01131965222972415</v>
+        <v>0.02190213241702797</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>16.727748</v>
+        <v>9.267269333333333</v>
       </c>
       <c r="H5">
-        <v>50.183244</v>
+        <v>27.801808</v>
       </c>
       <c r="I5">
-        <v>0.4893199132744808</v>
+        <v>0.4247863265101195</v>
       </c>
       <c r="J5">
-        <v>0.4893199132744808</v>
+        <v>0.4247863265101195</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -741,10 +741,10 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.1152523333333333</v>
+        <v>0.1457796666666667</v>
       </c>
       <c r="N5">
-        <v>0.345757</v>
+        <v>0.437339</v>
       </c>
       <c r="O5">
         <v>1</v>
@@ -753,16 +753,16 @@
         <v>1</v>
       </c>
       <c r="Q5">
-        <v>1.927911988412</v>
+        <v>1.350979434323555</v>
       </c>
       <c r="R5">
-        <v>17.351207895708</v>
+        <v>12.158814908912</v>
       </c>
       <c r="S5">
-        <v>0.4893199132744808</v>
+        <v>0.4247863265101195</v>
       </c>
       <c r="T5">
-        <v>0.4893199132744808</v>
+        <v>0.4247863265101195</v>
       </c>
     </row>
   </sheetData>
